--- a/mcmaster_excel/JIS_Steel_Pan_Head_Screws.xlsx
+++ b/mcmaster_excel/JIS_Steel_Pan_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,84 +434,92 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.,mm</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia., mm</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>HeadHt., mm</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>SpecificationsMet</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>M1.6 × 0.35 mm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.,mm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia., mm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>HeadHt., mm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tensile Strength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>SpecificationsMet</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -564,7 +572,11 @@
           <t>$6.09</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -622,7 +634,11 @@
           <t>6.40</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -680,7 +696,11 @@
           <t>6.40</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -738,7 +758,11 @@
           <t>6.54</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -796,7 +820,11 @@
           <t>6.74</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>M1.6 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -806,19 +834,59 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>No. 0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>JCIS10-70</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>96773A635</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
           <t>M1.7 × 0.35 mm</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -828,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -868,7 +936,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>96773A635</t>
+          <t>96773A636</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -876,7 +944,11 @@
           <t>6.92</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>M1.7 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -886,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -926,15 +998,19 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>96773A636</t>
+          <t>96773A637</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.92</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>M1.7 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -944,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -984,15 +1060,19 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>96773A637</t>
+          <t>96773A638</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>M1.7 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1002,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1042,15 +1122,19 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>96773A638</t>
+          <t>96773A639</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>M1.7 × 0.35 mm</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1060,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1070,17 +1154,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1090,7 +1174,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>JCIS10-70</t>
+          <t>JIS B 1111</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1100,15 +1184,19 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>96773A639</t>
+          <t>94387A511</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1118,19 +1206,59 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>94387A512</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>M2 × 0.4 mm</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1140,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1180,15 +1308,19 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>94387A511</t>
+          <t>94387A513</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1198,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1238,15 +1370,19 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>94387A512</t>
+          <t>94387A514</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1256,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1296,15 +1432,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>94387A513</t>
+          <t>94387A515</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1314,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1354,15 +1494,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>94387A514</t>
+          <t>94387A516</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1372,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1412,15 +1556,19 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>94387A515</t>
+          <t>94387A517</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>M2 × 0.4 mm</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1430,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1440,12 +1588,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1470,15 +1618,19 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>94387A516</t>
+          <t>94387A518</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1488,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1498,12 +1650,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1528,15 +1680,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>94387A517</t>
+          <t>94387A519</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1546,19 +1702,59 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>94387A521</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>M2.5 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1568,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1608,15 +1804,19 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>94387A518</t>
+          <t>94387A522</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1626,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1666,15 +1866,19 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>94387A519</t>
+          <t>94387A523</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>M2.5 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1684,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1724,15 +1928,19 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>94387A521</t>
+          <t>94387A524</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr"/>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1742,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1782,15 +1990,19 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>94387A522</t>
+          <t>94387A525</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1800,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1840,15 +2052,19 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>94387A523</t>
+          <t>94387A526</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1858,19 +2074,59 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>No. 1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>94387A527</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>M2.6 × 0.45 mm</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1880,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1920,15 +2176,19 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>94387A524</t>
+          <t>94387A528</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>M2.6 × 0.45 mm</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1938,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1948,22 +2208,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1978,15 +2238,19 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>94387A525</t>
+          <t>94387A203</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -1996,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2006,17 +2270,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2036,15 +2300,19 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>94387A526</t>
+          <t>94387A205</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr"/>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2054,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2064,22 +2332,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2094,15 +2362,19 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>94387A527</t>
+          <t>94387A206</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr"/>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2112,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2122,22 +2394,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2152,15 +2424,19 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>94387A528</t>
+          <t>94387A209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2170,19 +2446,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>94387A212</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>M3 × 0.5 mm</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2192,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2232,15 +2548,19 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>94387A203</t>
+          <t>94387A215</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr"/>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2250,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2275,7 +2595,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2290,15 +2610,19 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>94387A205</t>
+          <t>94387A218</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2308,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2348,15 +2672,19 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>94387A206</t>
+          <t>94387A221</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2366,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2406,15 +2734,19 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>94387A209</t>
+          <t>94387A224</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr"/>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2424,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2464,15 +2796,19 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>94387A212</t>
+          <t>94387A227</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2482,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2522,15 +2858,19 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>94387A215</t>
+          <t>94387A229</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr"/>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2540,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2580,15 +2920,19 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>94387A218</t>
+          <t>94387A231</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9.04</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2598,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2638,15 +2982,19 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>94387A221</t>
+          <t>94387A233</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>M3 × 0.5 mm</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2656,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2666,12 +3014,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2681,7 +3029,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2696,15 +3044,19 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>94387A224</t>
+          <t>94387A239</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>13.89</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr"/>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2714,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2724,12 +3076,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2754,15 +3106,19 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>94387A227</t>
+          <t>94387A240</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>14.04</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr"/>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2772,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2782,12 +3138,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2812,15 +3168,19 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>94387A229</t>
+          <t>94387A245</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>15.07</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2830,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2840,12 +3200,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2870,15 +3230,19 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>94387A231</t>
+          <t>94387A250</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>18.36</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2888,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2898,12 +3262,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2928,15 +3292,19 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>94387A233</t>
+          <t>94387A253</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>18.89</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr"/>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2946,19 +3314,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>94387A256</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
           <t>M4 × 0.7 mm</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -2968,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2993,7 +3401,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3008,15 +3416,19 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>94387A239</t>
+          <t>94387A259</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3026,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3066,15 +3478,19 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>94387A240</t>
+          <t>94387A262</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3084,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3124,15 +3540,19 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>94387A245</t>
+          <t>94387A265</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr"/>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3142,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3182,15 +3602,19 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>94387A250</t>
+          <t>94387A268</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>23.46</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3200,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3240,15 +3664,19 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>94387A253</t>
+          <t>94387A271</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>11.25</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t>26.75</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3258,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3293,20 +3721,24 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>94387A256</t>
+          <t>94387A274</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>12.11</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3316,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3351,20 +3783,24 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>94387A259</t>
+          <t>94387A280</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>M4 × 0.7 mm</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3374,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3384,12 +3820,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3399,7 +3835,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3414,15 +3850,19 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>94387A262</t>
+          <t>94387A315</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3432,7 +3872,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3442,12 +3882,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3472,15 +3912,19 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>94387A265</t>
+          <t>94387A320</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>20.68</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3490,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3500,12 +3944,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3530,15 +3974,19 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>94387A268</t>
+          <t>94387A323</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>23.46</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3548,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3558,12 +4006,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3588,15 +4036,19 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>94387A271</t>
+          <t>94387A326</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>26.75</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3606,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3616,12 +4068,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3641,20 +4093,24 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>94387A274</t>
+          <t>94387A329</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>14.86</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3664,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3674,12 +4130,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.00</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3699,20 +4155,24 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>94387A280</t>
+          <t>94387A332</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3722,19 +4182,59 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>94387A335</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
           <t>M5 × 0.8 mm</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3744,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3769,7 +4269,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3784,15 +4284,19 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>94387A315</t>
+          <t>94387A338</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3802,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3842,15 +4346,19 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>94387A320</t>
+          <t>94387A341</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>16.46</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3860,55 +4368,59 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No. 2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>No. 2</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>94387A323</t>
+          <t>94387A344</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>15.96</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3918,7 +4430,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3953,20 +4465,24 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>94387A326</t>
+          <t>94387A347</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>17.82</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
+          <t>12.57</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -3976,7 +4492,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4011,20 +4527,24 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>94387A329</t>
+          <t>94387A350</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>19.04</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4034,7 +4554,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4069,20 +4589,24 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>94387A332</t>
+          <t>94387A356</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>21.86</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>M5 × 0.8 mm</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4092,7 +4616,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4102,17 +4626,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4132,15 +4656,19 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>94387A335</t>
+          <t>94387A420</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>22.82</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4150,7 +4678,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4160,17 +4688,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4190,15 +4718,19 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>94387A338</t>
+          <t>94387A423</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>24.14</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4208,7 +4740,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4218,17 +4750,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4248,15 +4780,19 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>94387A341</t>
+          <t>94387A426</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>25.25</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>22.25</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4266,7 +4802,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4276,17 +4812,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4301,20 +4837,24 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>94387A344</t>
+          <t>94387A429</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>11.39</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4324,7 +4864,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4334,17 +4874,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4364,15 +4904,19 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>94387A347</t>
+          <t>94387A432</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>12.57</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
+          <t>15.14</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4382,7 +4926,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4392,17 +4936,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4422,15 +4966,19 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>94387A350</t>
+          <t>94387A435</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>16.14</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>17.11</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4440,7 +4988,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4450,17 +4998,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>9.00</t>
+          <t>10.50</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4480,15 +5028,19 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>94387A356</t>
+          <t>94387A438</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>22.50</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4498,19 +5050,59 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>94387A441</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
           <t>M6 × 1 mm</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4520,55 +5112,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>60,000</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>JIS B 1111</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>94387A420</t>
+          <t>94387A447</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>19.29</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr"/>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4578,7 +5174,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>60</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4613,20 +5209,24 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>94387A423</t>
+          <t>94387A453</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>20.75</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4636,7 +5236,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4671,20 +5271,24 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>94387A426</t>
+          <t>94387A459</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>22.25</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr"/>
+          <t>26.54</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
@@ -4694,7 +5298,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4729,485 +5333,25 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>94387A429</t>
+          <t>94387A465</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>24.64</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>M6 × 1 mm</t>
+        </is>
+      </c>
       <c r="L80" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>94387A432</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>15.14</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>94387A435</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>17.11</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>94387A438</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>94387A441</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>15.86</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
-        <is>
-          <t>94387A447</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>20.04</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>94387A453</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>94387A459</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>26.54</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>10.50</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>No. 3</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>60,000</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>JIS B 1111</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>94387A465</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>18.75</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
